--- a/data/cleaned_data/2014_FL.xlsx
+++ b/data/cleaned_data/2014_FL.xlsx
@@ -1237,7 +1237,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -1260,7 +1260,7 @@
         <v>185</v>
       </c>
       <c r="E2">
-        <v>259052</v>
+        <v>255456</v>
       </c>
       <c r="F2" t="s">
         <v>251</v>
@@ -1283,7 +1283,7 @@
         <v>186</v>
       </c>
       <c r="E3">
-        <v>27355</v>
+        <v>27122</v>
       </c>
       <c r="F3" t="s">
         <v>252</v>
@@ -1306,7 +1306,7 @@
         <v>187</v>
       </c>
       <c r="E4">
-        <v>181488</v>
+        <v>178289</v>
       </c>
       <c r="F4" t="s">
         <v>253</v>
@@ -1329,7 +1329,7 @@
         <v>188</v>
       </c>
       <c r="E5">
-        <v>26748</v>
+        <v>26552</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1346,7 +1346,7 @@
         <v>189</v>
       </c>
       <c r="E6">
-        <v>565746</v>
+        <v>555548</v>
       </c>
       <c r="F6" t="s">
         <v>254</v>
@@ -1369,7 +1369,7 @@
         <v>190</v>
       </c>
       <c r="E7">
-        <v>1885040</v>
+        <v>1860933</v>
       </c>
       <c r="F7" t="s">
         <v>255</v>
@@ -1392,7 +1392,7 @@
         <v>191</v>
       </c>
       <c r="E8">
-        <v>14406</v>
+        <v>14450</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1409,7 +1409,7 @@
         <v>192</v>
       </c>
       <c r="E9">
-        <v>172382</v>
+        <v>168041</v>
       </c>
       <c r="F9" t="s">
         <v>256</v>
@@ -1432,7 +1432,7 @@
         <v>193</v>
       </c>
       <c r="E10">
-        <v>140287</v>
+        <v>138828</v>
       </c>
       <c r="F10" t="s">
         <v>257</v>
@@ -1455,7 +1455,7 @@
         <v>194</v>
       </c>
       <c r="E11">
-        <v>202392</v>
+        <v>198570</v>
       </c>
       <c r="F11" t="s">
         <v>252</v>
@@ -1478,7 +1478,7 @@
         <v>195</v>
       </c>
       <c r="E12">
-        <v>356041</v>
+        <v>347211</v>
       </c>
       <c r="F12" t="s">
         <v>258</v>
@@ -1501,7 +1501,7 @@
         <v>196</v>
       </c>
       <c r="E13">
-        <v>68222</v>
+        <v>67779</v>
       </c>
       <c r="F13" t="s">
         <v>259</v>
@@ -1524,7 +1524,7 @@
         <v>197</v>
       </c>
       <c r="E14">
-        <v>35648</v>
+        <v>35338</v>
       </c>
       <c r="F14" t="s">
         <v>260</v>
@@ -1547,7 +1547,7 @@
         <v>198</v>
       </c>
       <c r="E15">
-        <v>16353</v>
+        <v>16041</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1564,7 +1564,7 @@
         <v>199</v>
       </c>
       <c r="E16">
-        <v>910578</v>
+        <v>896668</v>
       </c>
       <c r="F16" t="s">
         <v>252</v>
@@ -1587,7 +1587,7 @@
         <v>200</v>
       </c>
       <c r="E17">
-        <v>309311</v>
+        <v>307960</v>
       </c>
       <c r="F17" t="s">
         <v>261</v>
@@ -1610,7 +1610,7 @@
         <v>201</v>
       </c>
       <c r="E18">
-        <v>104436</v>
+        <v>101889</v>
       </c>
       <c r="F18" t="s">
         <v>262</v>
@@ -1633,7 +1633,7 @@
         <v>202</v>
       </c>
       <c r="E19">
-        <v>11707</v>
+        <v>11661</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1650,7 +1650,7 @@
         <v>203</v>
       </c>
       <c r="E20">
-        <v>46060</v>
+        <v>46114</v>
       </c>
       <c r="F20" t="s">
         <v>263</v>
@@ -1673,7 +1673,7 @@
         <v>204</v>
       </c>
       <c r="E21">
-        <v>17378</v>
+        <v>16991</v>
       </c>
       <c r="F21" t="s">
         <v>251</v>
@@ -1696,7 +1696,7 @@
         <v>205</v>
       </c>
       <c r="E22">
-        <v>13099</v>
+        <v>12943</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1713,7 +1713,7 @@
         <v>206</v>
       </c>
       <c r="E23">
-        <v>15929</v>
+        <v>16002</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1730,7 +1730,7 @@
         <v>207</v>
       </c>
       <c r="E24">
-        <v>14272</v>
+        <v>14071</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1747,7 +1747,7 @@
         <v>208</v>
       </c>
       <c r="E25">
-        <v>27177</v>
+        <v>27266</v>
       </c>
       <c r="F25" t="s">
         <v>264</v>
@@ -1770,7 +1770,7 @@
         <v>209</v>
       </c>
       <c r="E26">
-        <v>39248</v>
+        <v>38474</v>
       </c>
       <c r="F26" t="s">
         <v>265</v>
@@ -1793,7 +1793,7 @@
         <v>210</v>
       </c>
       <c r="E27">
-        <v>177900</v>
+        <v>175298</v>
       </c>
       <c r="F27" t="s">
         <v>266</v>
@@ -1816,7 +1816,7 @@
         <v>211</v>
       </c>
       <c r="E28">
-        <v>100137</v>
+        <v>98584</v>
       </c>
       <c r="F28" t="s">
         <v>267</v>
@@ -1839,7 +1839,7 @@
         <v>212</v>
       </c>
       <c r="E29">
-        <v>1364073</v>
+        <v>1332298</v>
       </c>
       <c r="F29" t="s">
         <v>266</v>
@@ -1862,7 +1862,7 @@
         <v>213</v>
       </c>
       <c r="E30">
-        <v>19273</v>
+        <v>19564</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1879,7 +1879,7 @@
         <v>214</v>
       </c>
       <c r="E31">
-        <v>147434</v>
+        <v>144445</v>
       </c>
       <c r="F31" t="s">
         <v>268</v>
@@ -1902,7 +1902,7 @@
         <v>215</v>
       </c>
       <c r="E32">
-        <v>48609</v>
+        <v>48730</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1919,7 +1919,7 @@
         <v>216</v>
       </c>
       <c r="E33">
-        <v>14115</v>
+        <v>14056</v>
       </c>
       <c r="F33" t="s">
         <v>263</v>
@@ -1942,7 +1942,7 @@
         <v>107</v>
       </c>
       <c r="E34">
-        <v>8724</v>
+        <v>8862</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1959,7 +1959,7 @@
         <v>217</v>
       </c>
       <c r="E35">
-        <v>325154</v>
+        <v>315340</v>
       </c>
       <c r="F35" t="s">
         <v>269</v>
@@ -1982,7 +1982,7 @@
         <v>218</v>
       </c>
       <c r="E36">
-        <v>699644</v>
+        <v>677232</v>
       </c>
       <c r="F36" t="s">
         <v>270</v>
@@ -2005,7 +2005,7 @@
         <v>219</v>
       </c>
       <c r="E37">
-        <v>285904</v>
+        <v>283770</v>
       </c>
       <c r="F37" t="s">
         <v>263</v>
@@ -2028,7 +2028,7 @@
         <v>220</v>
       </c>
       <c r="E38">
-        <v>39601</v>
+        <v>39296</v>
       </c>
       <c r="F38" t="s">
         <v>251</v>
@@ -2051,7 +2051,7 @@
         <v>221</v>
       </c>
       <c r="E39">
-        <v>8409</v>
+        <v>8418</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2068,7 +2068,7 @@
         <v>222</v>
       </c>
       <c r="E40">
-        <v>18478</v>
+        <v>18601</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2085,7 +2085,7 @@
         <v>223</v>
       </c>
       <c r="E41">
-        <v>362548</v>
+        <v>350865</v>
       </c>
       <c r="F41" t="s">
         <v>271</v>
@@ -2108,7 +2108,7 @@
         <v>224</v>
       </c>
       <c r="E42">
-        <v>342182</v>
+        <v>338005</v>
       </c>
       <c r="F42" t="s">
         <v>272</v>
@@ -2131,7 +2131,7 @@
         <v>225</v>
       </c>
       <c r="E43">
-        <v>155559</v>
+        <v>153119</v>
       </c>
       <c r="F43" t="s">
         <v>273</v>
@@ -2154,7 +2154,7 @@
         <v>226</v>
       </c>
       <c r="E44">
-        <v>2659839</v>
+        <v>2634269</v>
       </c>
       <c r="F44" t="s">
         <v>255</v>
@@ -2177,7 +2177,7 @@
         <v>227</v>
       </c>
       <c r="E45">
-        <v>76648</v>
+        <v>76261</v>
       </c>
       <c r="F45" t="s">
         <v>274</v>
@@ -2200,7 +2200,7 @@
         <v>228</v>
       </c>
       <c r="E46">
-        <v>77951</v>
+        <v>76250</v>
       </c>
       <c r="F46" t="s">
         <v>252</v>
@@ -2223,7 +2223,7 @@
         <v>229</v>
       </c>
       <c r="E47">
-        <v>197748</v>
+        <v>194615</v>
       </c>
       <c r="F47" t="s">
         <v>275</v>
@@ -2246,7 +2246,7 @@
         <v>230</v>
       </c>
       <c r="E48">
-        <v>39854</v>
+        <v>39569</v>
       </c>
       <c r="F48" t="s">
         <v>276</v>
@@ -2269,7 +2269,7 @@
         <v>231</v>
       </c>
       <c r="E49">
-        <v>1291301</v>
+        <v>1256606</v>
       </c>
       <c r="F49" t="s">
         <v>269</v>
@@ -2292,7 +2292,7 @@
         <v>232</v>
       </c>
       <c r="E50">
-        <v>323736</v>
+        <v>311046</v>
       </c>
       <c r="F50" t="s">
         <v>269</v>
@@ -2315,7 +2315,7 @@
         <v>233</v>
       </c>
       <c r="E51">
-        <v>1424256</v>
+        <v>1398656</v>
       </c>
       <c r="F51" t="s">
         <v>255</v>
@@ -2338,7 +2338,7 @@
         <v>234</v>
       </c>
       <c r="E52">
-        <v>494895</v>
+        <v>483399</v>
       </c>
       <c r="F52" t="s">
         <v>266</v>
@@ -2361,7 +2361,7 @@
         <v>235</v>
       </c>
       <c r="E53">
-        <v>947060</v>
+        <v>936400</v>
       </c>
       <c r="F53" t="s">
         <v>266</v>
@@ -2384,7 +2384,7 @@
         <v>236</v>
       </c>
       <c r="E54">
-        <v>648523</v>
+        <v>634398</v>
       </c>
       <c r="F54" t="s">
         <v>277</v>
@@ -2407,7 +2407,7 @@
         <v>237</v>
       </c>
       <c r="E55">
-        <v>71939</v>
+        <v>71971</v>
       </c>
       <c r="F55" t="s">
         <v>278</v>
@@ -2430,7 +2430,7 @@
         <v>238</v>
       </c>
       <c r="E56">
-        <v>166226</v>
+        <v>162668</v>
       </c>
       <c r="F56" t="s">
         <v>261</v>
@@ -2453,7 +2453,7 @@
         <v>239</v>
       </c>
       <c r="E57">
-        <v>404761</v>
+        <v>396363</v>
       </c>
       <c r="F57" t="s">
         <v>271</v>
@@ -2476,7 +2476,7 @@
         <v>240</v>
       </c>
       <c r="E58">
-        <v>448318</v>
+        <v>441399</v>
       </c>
       <c r="F58" t="s">
         <v>269</v>
@@ -2539,7 +2539,7 @@
         <v>243</v>
       </c>
       <c r="E61">
-        <v>117076</v>
+        <v>112236</v>
       </c>
       <c r="F61" t="s">
         <v>279</v>
@@ -2562,7 +2562,7 @@
         <v>244</v>
       </c>
       <c r="E62">
-        <v>43677</v>
+        <v>43786</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2579,7 +2579,7 @@
         <v>245</v>
       </c>
       <c r="E63">
-        <v>22355</v>
+        <v>22584</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2596,7 +2596,7 @@
         <v>246</v>
       </c>
       <c r="E64">
-        <v>15265</v>
+        <v>15258</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2613,7 +2613,7 @@
         <v>247</v>
       </c>
       <c r="E65">
-        <v>516730</v>
+        <v>506715</v>
       </c>
       <c r="F65" t="s">
         <v>262</v>
@@ -2636,7 +2636,7 @@
         <v>248</v>
       </c>
       <c r="E66">
-        <v>31523</v>
+        <v>31416</v>
       </c>
       <c r="F66" t="s">
         <v>263</v>
@@ -2659,7 +2659,7 @@
         <v>249</v>
       </c>
       <c r="E67">
-        <v>63066</v>
+        <v>61186</v>
       </c>
       <c r="F67" t="s">
         <v>275</v>
@@ -2682,7 +2682,7 @@
         <v>250</v>
       </c>
       <c r="E68">
-        <v>24552</v>
+        <v>24299</v>
       </c>
     </row>
   </sheetData>

--- a/data/cleaned_data/2014_FL.xlsx
+++ b/data/cleaned_data/2014_FL.xlsx
@@ -22,7 +22,7 @@
     <t>County</t>
   </si>
   <si>
-    <t>fatalaties</t>
+    <t>fatalities</t>
   </si>
   <si>
     <t>injuries</t>
@@ -2681,6 +2681,9 @@
       <c r="E59" t="s">
         <v>243</v>
       </c>
+      <c r="F59">
+        <v>217836</v>
+      </c>
       <c r="G59" t="s">
         <v>254</v>
       </c>
@@ -2703,6 +2706,9 @@
       </c>
       <c r="E60" t="s">
         <v>244</v>
+      </c>
+      <c r="F60">
+        <v>290045</v>
       </c>
       <c r="G60" t="s">
         <v>275</v>
